--- a/data/output/seat_status_classroom_image9.xlsx
+++ b/data/output/seat_status_classroom_image9.xlsx
@@ -507,19 +507,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1072.523071289062</v>
+        <v>1072.52294921875</v>
       </c>
       <c r="B3" t="n">
         <v>850.3176879882812</v>
       </c>
       <c r="C3" t="n">
-        <v>1259.027221679688</v>
+        <v>1259.027099609375</v>
       </c>
       <c r="D3" t="n">
         <v>936.2933349609375</v>
       </c>
       <c r="E3" t="n">
-        <v>1165.775146484375</v>
+        <v>1165.775024414062</v>
       </c>
       <c r="F3" t="n">
         <v>893.3055419921875</v>
@@ -543,13 +543,13 @@
         <v>930.7467041015625</v>
       </c>
       <c r="C4" t="n">
-        <v>85.62026214599609</v>
+        <v>85.62024688720703</v>
       </c>
       <c r="D4" t="n">
         <v>1046.434936523438</v>
       </c>
       <c r="E4" t="n">
-        <v>42.81013107299805</v>
+        <v>42.81012344360352</v>
       </c>
       <c r="F4" t="n">
         <v>988.5908203125</v>
@@ -570,19 +570,19 @@
         <v>563.6607055664062</v>
       </c>
       <c r="B5" t="n">
-        <v>835.502685546875</v>
+        <v>835.5027465820312</v>
       </c>
       <c r="C5" t="n">
         <v>744.4842529296875</v>
       </c>
       <c r="D5" t="n">
-        <v>1162.095947265625</v>
+        <v>1162.096069335938</v>
       </c>
       <c r="E5" t="n">
         <v>654.072509765625</v>
       </c>
       <c r="F5" t="n">
-        <v>998.79931640625</v>
+        <v>998.7994384765625</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>1416.70556640625</v>
       </c>
       <c r="D6" t="n">
-        <v>1065.72509765625</v>
+        <v>1065.725219726562</v>
       </c>
       <c r="E6" t="n">
         <v>1329.7236328125</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1011.165832519531</v>
+        <v>1011.165893554688</v>
       </c>
       <c r="B7" t="n">
         <v>937.058837890625</v>
       </c>
       <c r="C7" t="n">
-        <v>1179.588989257812</v>
+        <v>1179.5888671875</v>
       </c>
       <c r="D7" t="n">
         <v>1063.067504882812</v>
@@ -720,7 +720,7 @@
         <v>6.558523178100586</v>
       </c>
       <c r="B10" t="n">
-        <v>1018.77392578125</v>
+        <v>1018.773864746094</v>
       </c>
       <c r="C10" t="n">
         <v>313.5793151855469</v>

--- a/data/output/seat_status_classroom_image9.xlsx
+++ b/data/output/seat_status_classroom_image9.xlsx
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1291.374633789062</v>
+        <v>1291.113525390625</v>
       </c>
       <c r="B2" t="n">
-        <v>848.20751953125</v>
+        <v>848.2029418945312</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.055541992188</v>
+        <v>1423.70751953125</v>
       </c>
       <c r="D2" t="n">
-        <v>926.1447143554688</v>
+        <v>926.077880859375</v>
       </c>
       <c r="E2" t="n">
-        <v>1356.715087890625</v>
+        <v>1357.410522460938</v>
       </c>
       <c r="F2" t="n">
-        <v>887.1761474609375</v>
+        <v>887.140380859375</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1072.52294921875</v>
+        <v>1072.46044921875</v>
       </c>
       <c r="B3" t="n">
-        <v>850.3176879882812</v>
+        <v>850.109375</v>
       </c>
       <c r="C3" t="n">
-        <v>1259.027099609375</v>
+        <v>1259.138793945312</v>
       </c>
       <c r="D3" t="n">
-        <v>936.2933349609375</v>
+        <v>936.4962768554688</v>
       </c>
       <c r="E3" t="n">
-        <v>1165.775024414062</v>
+        <v>1165.799560546875</v>
       </c>
       <c r="F3" t="n">
-        <v>893.3055419921875</v>
+        <v>893.3028564453125</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,19 +540,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>930.7467041015625</v>
+        <v>930.6357421875</v>
       </c>
       <c r="C4" t="n">
-        <v>85.62024688720703</v>
+        <v>85.45265960693359</v>
       </c>
       <c r="D4" t="n">
-        <v>1046.434936523438</v>
+        <v>1046.547119140625</v>
       </c>
       <c r="E4" t="n">
-        <v>42.81012344360352</v>
+        <v>42.7263298034668</v>
       </c>
       <c r="F4" t="n">
-        <v>988.5908203125</v>
+        <v>988.5914306640625</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>563.6607055664062</v>
+        <v>563.3870239257812</v>
       </c>
       <c r="B5" t="n">
-        <v>835.5027465820312</v>
+        <v>834.9188232421875</v>
       </c>
       <c r="C5" t="n">
-        <v>744.4842529296875</v>
+        <v>744.6514892578125</v>
       </c>
       <c r="D5" t="n">
-        <v>1162.096069335938</v>
+        <v>1160.69970703125</v>
       </c>
       <c r="E5" t="n">
-        <v>654.072509765625</v>
+        <v>654.019287109375</v>
       </c>
       <c r="F5" t="n">
-        <v>998.7994384765625</v>
+        <v>997.8092651367188</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1242.74169921875</v>
+        <v>1242.727905273438</v>
       </c>
       <c r="B6" t="n">
-        <v>933.7374877929688</v>
+        <v>933.5765991210938</v>
       </c>
       <c r="C6" t="n">
-        <v>1416.70556640625</v>
+        <v>1416.628051757812</v>
       </c>
       <c r="D6" t="n">
-        <v>1065.725219726562</v>
+        <v>1065.683837890625</v>
       </c>
       <c r="E6" t="n">
-        <v>1329.7236328125</v>
+        <v>1329.677978515625</v>
       </c>
       <c r="F6" t="n">
-        <v>999.7313232421875</v>
+        <v>999.6302490234375</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1011.165893554688</v>
+        <v>1011.1298828125</v>
       </c>
       <c r="B7" t="n">
-        <v>937.058837890625</v>
+        <v>937.0846557617188</v>
       </c>
       <c r="C7" t="n">
-        <v>1179.5888671875</v>
+        <v>1179.236083984375</v>
       </c>
       <c r="D7" t="n">
-        <v>1063.067504882812</v>
+        <v>1062.873779296875</v>
       </c>
       <c r="E7" t="n">
-        <v>1095.37744140625</v>
+        <v>1095.182983398438</v>
       </c>
       <c r="F7" t="n">
-        <v>1000.063171386719</v>
+        <v>999.979248046875</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,22 +657,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1455.164184570312</v>
+        <v>1455.19287109375</v>
       </c>
       <c r="B8" t="n">
-        <v>919.20068359375</v>
+        <v>919.4004516601562</v>
       </c>
       <c r="C8" t="n">
         <v>1600</v>
       </c>
       <c r="D8" t="n">
-        <v>1090.354248046875</v>
+        <v>1090.338623046875</v>
       </c>
       <c r="E8" t="n">
-        <v>1527.58203125</v>
+        <v>1527.596435546875</v>
       </c>
       <c r="F8" t="n">
-        <v>1004.777465820312</v>
+        <v>1004.869506835938</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>290.6858520507812</v>
+        <v>290.6903381347656</v>
       </c>
       <c r="B9" t="n">
-        <v>916.0040283203125</v>
+        <v>916.1722412109375</v>
       </c>
       <c r="C9" t="n">
-        <v>427.8103942871094</v>
+        <v>427.8370361328125</v>
       </c>
       <c r="D9" t="n">
-        <v>1157.113159179688</v>
+        <v>1157.050415039062</v>
       </c>
       <c r="E9" t="n">
-        <v>359.2481079101562</v>
+        <v>359.263671875</v>
       </c>
       <c r="F9" t="n">
-        <v>1036.55859375</v>
+        <v>1036.611328125</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.558523178100586</v>
+        <v>6.614809036254883</v>
       </c>
       <c r="B10" t="n">
-        <v>1018.773864746094</v>
+        <v>1018.589294433594</v>
       </c>
       <c r="C10" t="n">
-        <v>313.5793151855469</v>
+        <v>313.6532592773438</v>
       </c>
       <c r="D10" t="n">
-        <v>1197.198486328125</v>
+        <v>1197.208374023438</v>
       </c>
       <c r="E10" t="n">
-        <v>160.0689239501953</v>
+        <v>160.134033203125</v>
       </c>
       <c r="F10" t="n">
-        <v>1107.986206054688</v>
+        <v>1107.898803710938</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
